--- a/biology/Botanique/Hydrophylle/Hydrophylle.xlsx
+++ b/biology/Botanique/Hydrophylle/Hydrophylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrophyllum
 Hydrophyllum (les hydrophylles) est un genre de plantes dicotylédones, de la famille des Hydrophyllaceae, dont toutes les espèces sont originaires d'Amérique du Nord et sont trouvées dans les sols humides ou mésiques.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (03 juin 2022)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (03 juin 2022):
 Hydrophyllum appendiculatum
 Hydrophyllum brownei
 Hydrophyllum canadense L. — Hydrophylle du Canada
